--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143021.5569745322</v>
+        <v>24662914.84987742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>143021.5569745322</v>
+        <v>24662914.84987742</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42551.437624322</v>
+        <v>5363224.21672185</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42551.437624322</v>
+        <v>5363224.21672185</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493769098.311737</v>
+        <v>53750071.77471925</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11186.47912189889</v>
+        <v>1096491.214563097</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22281.98110102424</v>
+        <v>2181401.044479806</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33387.00308014956</v>
+        <v>3268205.354396516</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44558.07008112888</v>
+        <v>4347038.39629782</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55610.33092318993</v>
+        <v>5437272.258090474</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66551.88251366909</v>
+        <v>6540298.340110863</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77515.44492637612</v>
+        <v>7657220.144953944</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88497.48733908316</v>
+        <v>8777819.469797025</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99895.17586463976</v>
+        <v>9855993.47980142</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>110423.7903248422</v>
+        <v>11003791.55884366</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>120847.3804074114</v>
+        <v>12179464.10564652</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>131291.6430049785</v>
+        <v>13359250.48293639</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141735.9056025549</v>
+        <v>14539036.86022582</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>153609.6313037204</v>
+        <v>15570511.59284267</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167145.4409790844</v>
+        <v>16381706.72707251</v>
       </c>
     </row>
   </sheetData>
